--- a/Documentação/Planilhas/Layouts/Devolucao.xlsx
+++ b/Documentação/Planilhas/Layouts/Devolucao.xlsx
@@ -4,21 +4,34 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_sige_devolucao_nr" sheetId="90" r:id="rId2"/>
-    <sheet name="stg_sige_devolucao_cab" sheetId="95" r:id="rId3"/>
-    <sheet name="stg_sige_devolucao_instancia" sheetId="96" r:id="rId4"/>
-    <sheet name="stg_relatorio_indice_devolucao" sheetId="94" r:id="rId5"/>
+    <sheet name="dim_devolucao_categoria" sheetId="107" r:id="rId2"/>
+    <sheet name="dim_devolucao_motivo" sheetId="106" r:id="rId3"/>
+    <sheet name="dim_devolucao_processo" sheetId="105" r:id="rId4"/>
+    <sheet name="dim_transportadora" sheetId="108" r:id="rId5"/>
+    <sheet name="ods_devolucao_cab" sheetId="102" r:id="rId6"/>
+    <sheet name="ods_devolucao_categoria" sheetId="97" r:id="rId7"/>
+    <sheet name="ods_devolucao_instancia" sheetId="103" r:id="rId8"/>
+    <sheet name="ods_devolucao_motivo" sheetId="99" r:id="rId9"/>
+    <sheet name="ods_devolucao_nr" sheetId="101" r:id="rId10"/>
+    <sheet name="ods_devolucao_processo" sheetId="100" r:id="rId11"/>
+    <sheet name="ods_relatorio_dev_instancia" sheetId="109" r:id="rId12"/>
+    <sheet name="ods_transportadora" sheetId="98" r:id="rId13"/>
+    <sheet name="stg_relatorio_indice_devolucao" sheetId="94" r:id="rId14"/>
+    <sheet name="stg_sige_devolucao_cab" sheetId="95" r:id="rId15"/>
+    <sheet name="stg_sige_devolucao_instancia" sheetId="96" r:id="rId16"/>
+    <sheet name="stg_sige_devolucao_nr" sheetId="90" r:id="rId17"/>
+    <sheet name="Plan14" sheetId="110" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="334">
   <si>
     <t>Campo</t>
   </si>
@@ -86,9 +99,6 @@
     <t>Valor do ICMS</t>
   </si>
   <si>
-    <t>ods_devolucao_fornecedor</t>
-  </si>
-  <si>
     <t>TABELAS</t>
   </si>
   <si>
@@ -233,9 +243,6 @@
     <t>Identifica o SKU através do seu código. Ex: 2343727, 2335997, 3085401, etc</t>
   </si>
   <si>
-    <t>Quantidade Faturada do SKU</t>
-  </si>
-  <si>
     <t>Valor da Mercadoria ???</t>
   </si>
   <si>
@@ -446,7 +453,586 @@
     <t>Identifica o Processo de Devolução através da sua descrição. Ex: Cancelamento / Alteração, Devolucao, etc</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifica o Status da Devolução através do seu código. Ex: </t>
+    <t>Identifica o Status da Devolução através do seu código. Ex: C, E, L, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Status da Devolução através da sua descrição. Ex: Aguardando Pedido, Cancelado, Encerrado, Pendente, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido do cliente através do seu número. Ex: 48158602, 44250590, 49801870, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data de Ocorrência da Instância no formato AAAA-MM-DD</t>
+  </si>
+  <si>
+    <t>Identifica a Categoria através do seu código. Ex: ARR, ATE, AVA, B2B, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Categoria através da sua descrição. Ex: Arrependimento, Atraso na Entrega, Avaria, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal de Entrada através do seu número. Ex: 11082, 20353, 9433, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu número. Ex: 4794066802, 4801834901, 4789719801, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item de garantia através do seu código. Ex: 1736552, 299027, etc</t>
+  </si>
+  <si>
+    <t>Valor Faturado do produto</t>
+  </si>
+  <si>
+    <t>Quantidade devolvida do produto</t>
+  </si>
+  <si>
+    <t>Valor da devolução do produto</t>
+  </si>
+  <si>
+    <t>Valor financiado do produto</t>
+  </si>
+  <si>
+    <t>Quantidade em estoque do produto</t>
+  </si>
+  <si>
+    <t>Quantidade comprada do produto</t>
+  </si>
+  <si>
+    <t>Percentual de devolução obtido através do cálculo: Valor Devolução / Valor Faturado</t>
+  </si>
+  <si>
+    <t>Quantidade Faturada do Produto</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_categoria]</t>
+  </si>
+  <si>
+    <t>ID_CATEGORIA</t>
+  </si>
+  <si>
+    <t>Identifica a Categoria da devolução através do seu código. Ex: QAE, IME, ARR, etc</t>
+  </si>
+  <si>
+    <t>DS_CATEGORIA</t>
+  </si>
+  <si>
+    <t>Identifica a Categoria da devolução através da sua descrição. Ex: Quebra automatica por estoque, Impossibilidade de entrega, Arrependimento, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_transportadora]</t>
+  </si>
+  <si>
+    <t>ID_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DS_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora da devolução através do seu código. Ex: 1034009000429, 973580000284, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora da devolução através da sua descrição. Ex: AGUIA SUL LOGISTICA E TRANSPORTES LTDA, ANDREANI LOGISTICA LTDA, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_motivo]</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo da devolução através do seu código. Ex: 4004, 3017, 4154, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Motivo da devolução através da sua descrição. Ex: Erro do Transportador, Embalagem Vazia, Erro de cadastro de produto, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_processo]</t>
+  </si>
+  <si>
+    <t>Identifica o Processo da devolução através do seu código. Ex: 2,3,4, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Processo da devolução através da sua descrição. Ex: Devolucao, Insucesso de Entrega, Roubo, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_nr]</t>
+  </si>
+  <si>
+    <t>id_nr</t>
+  </si>
+  <si>
+    <t>id_cia</t>
+  </si>
+  <si>
+    <t>id_filial</t>
+  </si>
+  <si>
+    <t>nr_cfo</t>
+  </si>
+  <si>
+    <t>nr_seq_cfo</t>
+  </si>
+  <si>
+    <t>dt_faturamento</t>
+  </si>
+  <si>
+    <t>id_deposito</t>
+  </si>
+  <si>
+    <t>cpf_cliente</t>
+  </si>
+  <si>
+    <t>nome_cliente</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>vl_icms</t>
+  </si>
+  <si>
+    <t>vl_frete</t>
+  </si>
+  <si>
+    <t>vl_despesa</t>
+  </si>
+  <si>
+    <t>vl_desconto_inc</t>
+  </si>
+  <si>
+    <t>vl_desconto_cond</t>
+  </si>
+  <si>
+    <t>vl_produto</t>
+  </si>
+  <si>
+    <t>vl_item_total</t>
+  </si>
+  <si>
+    <t>vl_cmv</t>
+  </si>
+  <si>
+    <t>filegroup_nr_mes</t>
+  </si>
+  <si>
+    <t>nr_id_endereco</t>
+  </si>
+  <si>
+    <t>vl_produto_unit</t>
+  </si>
+  <si>
+    <t>vl_ipi</t>
+  </si>
+  <si>
+    <t>nf_entrada</t>
+  </si>
+  <si>
+    <t>serie_nf_entrada</t>
+  </si>
+  <si>
+    <t>nf_remessa</t>
+  </si>
+  <si>
+    <t>serie_nf_remessa</t>
+  </si>
+  <si>
+    <t>nf_saida</t>
+  </si>
+  <si>
+    <t>serie_nf_saida</t>
+  </si>
+  <si>
+    <t>nf_saida_remessa</t>
+  </si>
+  <si>
+    <t>serie_nf_saida_remessa</t>
+  </si>
+  <si>
+    <t>id_caminhao</t>
+  </si>
+  <si>
+    <t>ds_user_inclusao</t>
+  </si>
+  <si>
+    <t>dt_inclusao</t>
+  </si>
+  <si>
+    <t>ds_user_ult_alteracao</t>
+  </si>
+  <si>
+    <t>dt_ult_alteracao</t>
+  </si>
+  <si>
+    <t>ds_user_conferencia_fiscal</t>
+  </si>
+  <si>
+    <t>dt_conferencia_fiscal</t>
+  </si>
+  <si>
+    <t>ds_deposito</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 1, 2, 3,  etc</t>
+  </si>
+  <si>
+    <t>Identifica o CFO através do seu código. Ex: 1411, 2411, etc</t>
+  </si>
+  <si>
+    <t>Identifica a sequência do CFO através do seu código. Ex: 4, 11, 10, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data do faturamento no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Depósito através do seu código. Ex: 66, 20 etc</t>
+  </si>
+  <si>
+    <t>Identifica o Cliente através do seu CPF/CNPF completo, sem qualquer separador. Ex: 32050473893, 15088062842, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Cliente através do seu nome completo. Ex: ADRIANA MACHIN, CLAUDETTE PERES MENEZES, etc</t>
+  </si>
+  <si>
+    <t>Quantidade do Produto (Faturada ou devolvida????)</t>
+  </si>
+  <si>
+    <t>Valor da Despesa</t>
+  </si>
+  <si>
+    <t>Valor do Produto</t>
+  </si>
+  <si>
+    <t>Valor do Custo da Mercadoria Vendida</t>
+  </si>
+  <si>
+    <t>Identifica o mês da ocorrência. Ex: 01, 02, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transportadora através do seu código. Ex: 34028316000294, 88085485000104, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Endereço (de quem???) através do seu código. Ex: 558, 6591, 6779, etc</t>
+  </si>
+  <si>
+    <t>Valor Unitário do Produto</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_cab]</t>
+  </si>
+  <si>
+    <t>nr_id_entrega</t>
+  </si>
+  <si>
+    <t>nr_id_unineg</t>
+  </si>
+  <si>
+    <t>nf_venda</t>
+  </si>
+  <si>
+    <t>serie_nf_venda</t>
+  </si>
+  <si>
+    <t>id_instancia</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal Venda através do seu número. Ex: 3365, 69609, 5715, etc</t>
+  </si>
+  <si>
+    <t>Identifica a série da Nota Fiscal Venda através do seu número. Ex: 123,105, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_devolucao_instancia]</t>
+  </si>
+  <si>
+    <t>fl_forcado</t>
+  </si>
+  <si>
+    <t>id_motivo</t>
+  </si>
+  <si>
+    <t>ds_motivo</t>
+  </si>
+  <si>
+    <t>id_processo</t>
+  </si>
+  <si>
+    <t>ds_processo</t>
+  </si>
+  <si>
+    <t>id_estado</t>
+  </si>
+  <si>
+    <t>nr_orders</t>
+  </si>
+  <si>
+    <t>dt_instancia</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu número. Ex: 564311501, 432023601, etc</t>
+  </si>
+  <si>
+    <t>Identifica ????? Através do seu código. Ex: S, N</t>
+  </si>
+  <si>
+    <t>Identifica a Ordem de Venda através do seu código. Ex: 33211373, 23544763, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da instancia no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_devolucao_processo]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_devolucao_motivo]</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_devolucao_categoria]</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_transportadora]</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_relatorio_devolucao_instancia]</t>
+  </si>
+  <si>
+    <t>vl_unit</t>
+  </si>
+  <si>
+    <t>Identifica a Instância através do seu código. Ex: 1056674, 971593, 1049689, etc</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Identifica o Depósito através do seu código. Ex: 2, 9, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Depósito através da sua descrição. Ex: Depósito WA, Depósito RT, etc</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_nr</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_cab</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>stg_relatorio_indice_devolucao</t>
+  </si>
+  <si>
+    <t>ods_devolucao_categoria</t>
+  </si>
+  <si>
+    <t>ods_transportadora</t>
+  </si>
+  <si>
+    <t>ods_devolucao_motivo</t>
+  </si>
+  <si>
+    <t>ods_devolucao_processo</t>
+  </si>
+  <si>
+    <t>ods_devolucao_nr</t>
+  </si>
+  <si>
+    <t>ods_devolucao_cab</t>
+  </si>
+  <si>
+    <t>ods_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>dim_devolucao_processo</t>
+  </si>
+  <si>
+    <t>dim_devolucao_motivo</t>
+  </si>
+  <si>
+    <t>dim_devolucao_categoria</t>
+  </si>
+  <si>
+    <t>dim_transportadora</t>
+  </si>
+  <si>
+    <t>ods_relatorio_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>DT_ULT_ATUALIZACAO</t>
+  </si>
+  <si>
+    <t>CD_CIA</t>
+  </si>
+  <si>
+    <t>CD_FILIAL</t>
+  </si>
+  <si>
+    <t>NR_NF</t>
+  </si>
+  <si>
+    <t>NR_SERIE_NF</t>
+  </si>
+  <si>
+    <t>CD_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>SQ_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>DT_FATURA</t>
+  </si>
+  <si>
+    <t>CD_CLIENTE_FATURA</t>
+  </si>
+  <si>
+    <t>CD_CLIENTE_ENTREGA</t>
+  </si>
+  <si>
+    <t>SQ_ENTREGA</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO</t>
+  </si>
+  <si>
+    <t>CD_STATUS</t>
+  </si>
+  <si>
+    <t>DT_STATUS</t>
+  </si>
+  <si>
+    <t>CD_TIPO_NF</t>
+  </si>
+  <si>
+    <t>NR_NFR_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>CD_ITEM</t>
+  </si>
+  <si>
+    <t>QT_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>VL_ICMS</t>
+  </si>
+  <si>
+    <t>VL_PRODUTO</t>
+  </si>
+  <si>
+    <t>VL_FRETE</t>
+  </si>
+  <si>
+    <t>VL_DESPESA</t>
+  </si>
+  <si>
+    <t>VL_DESCONTO_INCONDICIONAL</t>
+  </si>
+  <si>
+    <t>VL_TOTAL_ITEM</t>
+  </si>
+  <si>
+    <t>NR_PEDIDO_ORIGINAL</t>
+  </si>
+  <si>
+    <t>DT_PEDIDO</t>
+  </si>
+  <si>
+    <t>CD_CANAL_VENDAS</t>
+  </si>
+  <si>
+    <t>CD_TIPO_CLIENTE</t>
+  </si>
+  <si>
+    <t>CD_CIDADE</t>
+  </si>
+  <si>
+    <t>CD_PAIS</t>
+  </si>
+  <si>
+    <t>CD_ESTADO</t>
+  </si>
+  <si>
+    <t>VL_CMV</t>
+  </si>
+  <si>
+    <t>NR_NF_FATURA</t>
+  </si>
+  <si>
+    <t>NR_SERIE_NF_FATURA</t>
+  </si>
+  <si>
+    <t>NR_NF_REMESSA</t>
+  </si>
+  <si>
+    <t>NR_SERIE_NF_REMESSA</t>
+  </si>
+  <si>
+    <t>VL_PIS</t>
+  </si>
+  <si>
+    <t>VL_COFINS</t>
+  </si>
+  <si>
+    <t>CD_UNIDADE_NEGOCIO</t>
+  </si>
+  <si>
+    <t>IN_REPOSICAO</t>
+  </si>
+  <si>
+    <t>CD_UNIDADE_EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>NR_REC_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>NM_MOTIVO_CATEGORIA</t>
+  </si>
+  <si>
+    <t>NM_MOTIVO_ASSUNTO</t>
+  </si>
+  <si>
+    <t>NM_MOTIVO_ETIQUETA</t>
+  </si>
+  <si>
+    <t>NR_ENTREGA_ORIGINAL</t>
+  </si>
+  <si>
+    <t>NR_ENTREGA_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>CD_ARMAZEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Devolvida (ou Faturada)????? do SKU </t>
+  </si>
+  <si>
+    <t>aux_dq_nome_cidade</t>
+  </si>
+  <si>
+    <t>ods_endereco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stg_sige_devolucao_nr </t>
+  </si>
+  <si>
+    <t>ods_fatdev</t>
+  </si>
+  <si>
+    <t>dim_product</t>
+  </si>
+  <si>
+    <t>vw_inventory_supply</t>
+  </si>
+  <si>
+    <t>ods_estoque_sige</t>
+  </si>
+  <si>
+    <t>ods_purchase</t>
   </si>
 </sst>
 </file>
@@ -498,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -728,6 +1314,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,7 +1335,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,6 +1387,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,6 +1411,321 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -944,6 +1861,231 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1273,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1288,84 +2430,220 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="15" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="C3" s="16" t="str">
+        <f>dim_devolucao_categoria!B10</f>
+        <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>dim_devolucao_motivo!B10</f>
+        <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f>dim_devolucao_processo!B10</f>
+        <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>dim_transportadora!B10</f>
+        <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>ods_devolucao_cab!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>ods_devolucao_categoria!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>ods_devolucao_instancia!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>ods_devolucao_motivo!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>ods_devolucao_nr!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>ods_devolucao_processo!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f>ods_relatorio_dev_instancia!B10</f>
+        <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f>ods_transportadora!B10</f>
+        <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>stg_relatorio_indice_devolucao!B10</f>
+        <v>N:\Migracao\Devolucao_LN\stg_relatorio_indice_devolucao.dtsx</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f>stg_sige_devolucao_cab!B10</f>
+        <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f>stg_sige_devolucao_instancia!B10</f>
+        <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="16" t="str">
         <f>stg_sige_devolucao_nr!B10</f>
         <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
   </sheetData>
+  <sortState ref="B3:D18">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B3" location="dim_devolucao_categoria!A1" display="dim_devolucao_categoria"/>
+    <hyperlink ref="B4" location="dim_devolucao_motivo!A1" display="dim_devolucao_motivo"/>
+    <hyperlink ref="B5" location="dim_devolucao_processo!A1" display="dim_devolucao_processo"/>
+    <hyperlink ref="B6" location="dim_transportadora!A1" display="dim_transportadora"/>
+    <hyperlink ref="B7" location="ods_devolucao_cab!A1" display="ods_devolucao_cab"/>
+    <hyperlink ref="B8" location="ods_devolucao_categoria!A1" display="ods_devolucao_categoria"/>
+    <hyperlink ref="B9" location="ods_devolucao_instancia!A1" display="ods_devolucao_instancia"/>
+    <hyperlink ref="B10" location="ods_devolucao_motivo!A1" display="ods_devolucao_motivo"/>
+    <hyperlink ref="B11" location="ods_devolucao_nr!A1" display="ods_devolucao_nr"/>
+    <hyperlink ref="B12" location="ods_devolucao_processo!A1" display="ods_devolucao_processo"/>
+    <hyperlink ref="B13" location="ods_relatorio_dev_instancia!A1" display="ods_relatorio_devolucao_instancia"/>
+    <hyperlink ref="B14" location="ods_transportadora!A1" display="ods_transportadora"/>
+    <hyperlink ref="B15" location="stg_relatorio_indice_devolucao!A1" display="stg_relatorio_indice_devolucao"/>
+    <hyperlink ref="B16" location="stg_sige_devolucao_cab!A1" display="stg_sige_devolucao_cab"/>
+    <hyperlink ref="B17" location="stg_sige_devolucao_instancia!A1" display="stg_sige_devolucao_instancia"/>
+    <hyperlink ref="B18" location="stg_sige_devolucao_nr!A1" display="stg_sige_devolucao_nr"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1412,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1420,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1440,408 +2718,353 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="B35" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1850,15 +3073,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1905,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1913,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1933,97 +3156,31 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>172</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>120</v>
+      <c r="A15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,15 +3189,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2079,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2087,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2095,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2115,155 +3272,349 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>257</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+        <v>247</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+        <v>239</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+        <v>229</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+        <v>197</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+        <v>198</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+        <v>176</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+        <v>177</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+        <v>183</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+        <v>194</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+        <v>178</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="7"/>
+      <c r="A34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,15 +3623,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2319,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2327,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2335,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2355,79 +3706,247 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1"/>
-    <row r="25" spans="1:2" ht="30" customHeight="1"/>
-    <row r="26" spans="1:2" ht="30" customHeight="1"/>
-    <row r="27" spans="1:2" ht="30" customHeight="1"/>
-    <row r="28" spans="1:2" ht="30" customHeight="1"/>
-    <row r="29" spans="1:2" ht="30" customHeight="1"/>
-    <row r="30" spans="1:2" ht="30" customHeight="1"/>
-    <row r="31" spans="1:2" ht="30" customHeight="1"/>
-    <row r="32" spans="1:2" ht="30" customHeight="1"/>
+      <c r="B23" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1"/>
+    <row r="28" spans="1:5" ht="30" customHeight="1"/>
+    <row r="29" spans="1:5" ht="30" customHeight="1"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1"/>
+    <row r="32" spans="1:5" ht="30" customHeight="1"/>
     <row r="33" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
@@ -2592,4 +4111,2371 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E2:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Layouts/Devolucao.xlsx
+++ b/Documentação/Planilhas/Layouts/Devolucao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="327">
   <si>
     <t>Campo</t>
   </si>
@@ -825,9 +825,6 @@
     <t>stg_sige_devolucao_instancia</t>
   </si>
   <si>
-    <t>stg_relatorio_indice_devolucao</t>
-  </si>
-  <si>
     <t>ods_devolucao_categoria</t>
   </si>
   <si>
@@ -843,27 +840,6 @@
     <t>ods_devolucao_nr</t>
   </si>
   <si>
-    <t>ods_devolucao_cab</t>
-  </si>
-  <si>
-    <t>ods_devolucao_instancia</t>
-  </si>
-  <si>
-    <t>dim_devolucao_processo</t>
-  </si>
-  <si>
-    <t>dim_devolucao_motivo</t>
-  </si>
-  <si>
-    <t>dim_devolucao_categoria</t>
-  </si>
-  <si>
-    <t>dim_transportadora</t>
-  </si>
-  <si>
-    <t>ods_relatorio_devolucao_instancia</t>
-  </si>
-  <si>
     <t>DT_ULT_ATUALIZACAO</t>
   </si>
   <si>
@@ -1033,13 +1009,16 @@
   </si>
   <si>
     <t>ods_purchase</t>
+  </si>
+  <si>
+    <t>BANCO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1044,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1335,7 +1321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1368,27 +1354,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,199 +2407,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="16" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="17" t="str">
+        <f>dim_devolucao_categoria!B9</f>
+        <v>[dbo].[dim_devolucao_categoria]</v>
+      </c>
+      <c r="C3" s="24" t="str">
+        <f>dim_devolucao_categoria!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="18" t="str">
         <f>dim_devolucao_categoria!B10</f>
         <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="16" t="str">
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="17" t="str">
+        <f>dim_devolucao_motivo!B9</f>
+        <v>[dbo].[dim_devolucao_motivo]</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f>dim_devolucao_motivo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="18" t="str">
         <f>dim_devolucao_motivo!B10</f>
         <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="16" t="str">
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="17" t="str">
+        <f>dim_devolucao_processo!B9</f>
+        <v>[dbo].[dim_devolucao_processo]</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f>dim_devolucao_processo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="18" t="str">
         <f>dim_devolucao_processo!B10</f>
         <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="16" t="str">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="17" t="str">
+        <f>dim_transportadora!B9</f>
+        <v>[dbo].[dim_transportadora]</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f>dim_transportadora!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D6" s="18" t="str">
         <f>dim_transportadora!B10</f>
         <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="16" t="str">
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="17" t="str">
+        <f>ods_devolucao_cab!B9</f>
+        <v>[dbo].[ods_devolucao_cab]</v>
+      </c>
+      <c r="C7" s="24" t="str">
+        <f>ods_devolucao_cab!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D7" s="18" t="str">
         <f>ods_devolucao_cab!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="16" t="str">
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="17" t="str">
+        <f>ods_devolucao_categoria!B9</f>
+        <v>[dbo].[ods_devolucao_categoria]</v>
+      </c>
+      <c r="C8" s="24" t="str">
+        <f>ods_devolucao_categoria!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D8" s="18" t="str">
         <f>ods_devolucao_categoria!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="16" t="str">
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="17" t="str">
+        <f>ods_devolucao_instancia!B9</f>
+        <v>[dbo].[ods_devolucao_instancia]</v>
+      </c>
+      <c r="C9" s="24" t="str">
+        <f>ods_devolucao_instancia!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="18" t="str">
         <f>ods_devolucao_instancia!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="16" t="str">
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="19" t="str">
+        <f>ods_devolucao_motivo!B9</f>
+        <v>[dbo].[ods_devolucao_motivo]</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f>ods_devolucao_motivo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="18" t="str">
         <f>ods_devolucao_motivo!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="16" t="str">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="19" t="str">
+        <f>ods_devolucao_nr!B9</f>
+        <v>[dbo].[ods_devolucao_nr]</v>
+      </c>
+      <c r="C11" s="24" t="str">
+        <f>ods_devolucao_nr!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="18" t="str">
         <f>ods_devolucao_nr!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="16" t="str">
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="19" t="str">
+        <f>ods_devolucao_processo!B9</f>
+        <v>[dbo].[ods_devolucao_processo]</v>
+      </c>
+      <c r="C12" s="24" t="str">
+        <f>ods_devolucao_processo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D12" s="18" t="str">
         <f>ods_devolucao_processo!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="16" t="str">
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="19" t="str">
+        <f>ods_relatorio_dev_instancia!B9</f>
+        <v>[dbo].[ods_relatorio_devolucao_instancia]</v>
+      </c>
+      <c r="C13" s="24" t="str">
+        <f>ods_relatorio_dev_instancia!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D13" s="18" t="str">
         <f>ods_relatorio_dev_instancia!B10</f>
         <v>N:\Migracao\Devolucao_LN\dw_devolucao_sac.dtsx</v>
       </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="16" t="str">
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="19" t="str">
+        <f>ods_transportadora!B9</f>
+        <v>[dbo].[ods_transportadora]</v>
+      </c>
+      <c r="C14" s="24" t="str">
+        <f>ods_transportadora!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D14" s="18" t="str">
         <f>ods_transportadora!B10</f>
         <v>N:\Migracao\Devolucao_LN\ods_devolucao_sac.dtsx</v>
       </c>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="16" t="str">
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="17" t="str">
+        <f>stg_relatorio_indice_devolucao!B9</f>
+        <v>[dbo].[stg_relatorio_indice_devolucao]</v>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>stg_relatorio_indice_devolucao!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D15" s="18" t="str">
         <f>stg_relatorio_indice_devolucao!B10</f>
         <v>N:\Migracao\Devolucao_LN\stg_relatorio_indice_devolucao.dtsx</v>
       </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="16" t="str">
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="19" t="str">
+        <f>stg_sige_devolucao_cab!B9</f>
+        <v>[dbo].[stg_sige_devolucao_cab]</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>stg_sige_devolucao_cab!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D16" s="18" t="str">
         <f>stg_sige_devolucao_cab!B10</f>
         <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="16" t="str">
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="19" t="str">
+        <f>stg_sige_devolucao_instancia!B9</f>
+        <v>[dbo].[stg_sige_devolucao_instancia]</v>
+      </c>
+      <c r="C17" s="24" t="str">
+        <f>stg_sige_devolucao_instancia!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D17" s="18" t="str">
         <f>stg_sige_devolucao_instancia!B10</f>
         <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
       </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="16" t="str">
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="19" t="str">
+        <f>stg_sige_devolucao_nr!B9</f>
+        <v>[dbo].[stg_sige_devolucao_nr]</v>
+      </c>
+      <c r="C18" s="24" t="str">
+        <f>stg_sige_devolucao_nr!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D18" s="18" t="str">
         <f>stg_sige_devolucao_nr!B10</f>
         <v>N:\Migracao\Devolucao_LN\stg_devolucao_sac.dtsx</v>
       </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
   </sheetData>
   <sortState ref="B3:D18">
@@ -2626,10 +2706,10 @@
     <hyperlink ref="B12" location="ods_devolucao_processo!A1" display="ods_devolucao_processo"/>
     <hyperlink ref="B13" location="ods_relatorio_dev_instancia!A1" display="ods_relatorio_devolucao_instancia"/>
     <hyperlink ref="B14" location="ods_transportadora!A1" display="ods_transportadora"/>
-    <hyperlink ref="B15" location="stg_relatorio_indice_devolucao!A1" display="stg_relatorio_indice_devolucao"/>
     <hyperlink ref="B16" location="stg_sige_devolucao_cab!A1" display="stg_sige_devolucao_cab"/>
     <hyperlink ref="B17" location="stg_sige_devolucao_instancia!A1" display="stg_sige_devolucao_instancia"/>
     <hyperlink ref="B18" location="stg_sige_devolucao_nr!A1" display="stg_sige_devolucao_nr"/>
+    <hyperlink ref="B15" location="stg_relatorio_indice_devolucao!A1" display="stg_relatorio_indice_devolucao!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2642,9 +2722,7 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2731,55 +2809,55 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2787,7 +2865,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2795,151 +2873,151 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="13" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="13" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2947,7 +3025,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -2955,7 +3033,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -2963,7 +3041,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2971,7 +3049,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -2979,7 +3057,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2987,7 +3065,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2995,7 +3073,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" customHeight="1">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3003,7 +3081,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" customHeight="1">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3011,7 +3089,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3019,7 +3097,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3027,7 +3105,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" customHeight="1">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3035,7 +3113,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" customHeight="1">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3043,7 +3121,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" customHeight="1">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3051,7 +3129,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" customHeight="1">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3080,9 +3158,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3196,9 +3272,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3340,7 +3414,7 @@
       <c r="A21" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="13" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3380,7 +3454,7 @@
       <c r="A26" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3388,7 +3462,7 @@
       <c r="A27" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3396,7 +3470,7 @@
       <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3404,7 +3478,7 @@
       <c r="A29" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3412,7 +3486,7 @@
       <c r="A30" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="13" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3420,7 +3494,7 @@
       <c r="A31" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3428,7 +3502,7 @@
       <c r="A32" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3444,7 +3518,7 @@
       <c r="A34" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3468,7 +3542,7 @@
       <c r="A37" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3500,7 +3574,7 @@
       <c r="A41" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="13" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3630,9 +3704,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3715,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -3746,9 +3818,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3831,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -3845,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -3859,7 +3929,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
@@ -3873,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
@@ -3887,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
@@ -3901,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
@@ -4120,9 +4190,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4302,9 +4370,7 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:E1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4403,8 +4469,8 @@
       <c r="B16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -4566,9 +4632,7 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4667,15 +4731,15 @@
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5064,227 +5128,227 @@
   <sheetData>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="5:5">
       <c r="E3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="5:5">
@@ -5294,17 +5358,17 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5319,7 +5383,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -5404,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -5520,7 +5584,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -5636,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -5752,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -5872,27 +5936,27 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -5902,7 +5966,7 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -5910,7 +5974,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -5918,7 +5982,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -5926,7 +5990,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -5934,7 +5998,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5942,7 +6006,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -5950,7 +6014,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -5979,9 +6043,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6095,9 +6157,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6173,7 +6233,7 @@
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -6184,27 +6244,27 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6214,7 +6274,7 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6222,7 +6282,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6230,7 +6290,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6238,7 +6298,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6246,7 +6306,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6254,7 +6314,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6262,7 +6322,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6270,7 +6330,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6278,7 +6338,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6286,15 +6346,15 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6302,7 +6362,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6310,7 +6370,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6318,7 +6378,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6326,7 +6386,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -6334,7 +6394,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -6342,7 +6402,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -6371,9 +6431,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Documentação/Planilhas/Layouts/Devolucao.xlsx
+++ b/Documentação/Planilhas/Layouts/Devolucao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="stg_sige_devolucao_cab" sheetId="95" r:id="rId15"/>
     <sheet name="stg_sige_devolucao_instancia" sheetId="96" r:id="rId16"/>
     <sheet name="stg_sige_devolucao_nr" sheetId="90" r:id="rId17"/>
-    <sheet name="Plan14" sheetId="110" r:id="rId18"/>
+    <sheet name="NFR e FAT" sheetId="110" r:id="rId18"/>
+    <sheet name="DEV" sheetId="112" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="424">
   <si>
     <t>Campo</t>
   </si>
@@ -840,9 +841,6 @@
     <t>ods_devolucao_nr</t>
   </si>
   <si>
-    <t>DT_ULT_ATUALIZACAO</t>
-  </si>
-  <si>
     <t>CD_CIA</t>
   </si>
   <si>
@@ -855,117 +853,21 @@
     <t>NR_SERIE_NF</t>
   </si>
   <si>
-    <t>CD_NATUREZA_OPERACAO</t>
-  </si>
-  <si>
-    <t>SQ_NATUREZA_OPERACAO</t>
-  </si>
-  <si>
-    <t>DT_FATURA</t>
-  </si>
-  <si>
-    <t>CD_CLIENTE_FATURA</t>
-  </si>
-  <si>
-    <t>CD_CLIENTE_ENTREGA</t>
-  </si>
-  <si>
-    <t>SQ_ENTREGA</t>
-  </si>
-  <si>
     <t>NR_PEDIDO</t>
   </si>
   <si>
-    <t>CD_STATUS</t>
-  </si>
-  <si>
-    <t>DT_STATUS</t>
-  </si>
-  <si>
-    <t>CD_TIPO_NF</t>
-  </si>
-  <si>
-    <t>NR_NFR_DEVOLUCAO</t>
-  </si>
-  <si>
     <t>CD_ITEM</t>
   </si>
   <si>
-    <t>QT_DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>VL_ICMS</t>
-  </si>
-  <si>
-    <t>VL_PRODUTO</t>
-  </si>
-  <si>
-    <t>VL_FRETE</t>
-  </si>
-  <si>
-    <t>VL_DESPESA</t>
-  </si>
-  <si>
-    <t>VL_DESCONTO_INCONDICIONAL</t>
-  </si>
-  <si>
-    <t>VL_TOTAL_ITEM</t>
-  </si>
-  <si>
-    <t>NR_PEDIDO_ORIGINAL</t>
-  </si>
-  <si>
-    <t>DT_PEDIDO</t>
-  </si>
-  <si>
-    <t>CD_CANAL_VENDAS</t>
-  </si>
-  <si>
-    <t>CD_TIPO_CLIENTE</t>
-  </si>
-  <si>
-    <t>CD_CIDADE</t>
-  </si>
-  <si>
-    <t>CD_PAIS</t>
-  </si>
-  <si>
-    <t>CD_ESTADO</t>
-  </si>
-  <si>
-    <t>VL_CMV</t>
-  </si>
-  <si>
     <t>NR_NF_FATURA</t>
   </si>
   <si>
     <t>NR_SERIE_NF_FATURA</t>
   </si>
   <si>
-    <t>NR_NF_REMESSA</t>
-  </si>
-  <si>
-    <t>NR_SERIE_NF_REMESSA</t>
-  </si>
-  <si>
-    <t>VL_PIS</t>
-  </si>
-  <si>
-    <t>VL_COFINS</t>
-  </si>
-  <si>
     <t>CD_UNIDADE_NEGOCIO</t>
   </si>
   <si>
-    <t>IN_REPOSICAO</t>
-  </si>
-  <si>
-    <t>CD_UNIDADE_EMPRESARIAL</t>
-  </si>
-  <si>
-    <t>NR_REC_DEVOLUCAO</t>
-  </si>
-  <si>
     <t>NM_MOTIVO_CATEGORIA</t>
   </si>
   <si>
@@ -975,15 +877,9 @@
     <t>NM_MOTIVO_ETIQUETA</t>
   </si>
   <si>
-    <t>NR_ENTREGA_ORIGINAL</t>
-  </si>
-  <si>
     <t>NR_ENTREGA_DEVOLUCAO</t>
   </si>
   <si>
-    <t>CD_ARMAZEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantidade Devolvida (ou Faturada)????? do SKU </t>
   </si>
   <si>
@@ -1012,6 +908,402 @@
   </si>
   <si>
     <t>BANCO</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>cd_item</t>
+  </si>
+  <si>
+    <t>MIS_MIGRACAO</t>
+  </si>
+  <si>
+    <t>STG_DEV_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce.nfca_id_transp                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cast(filtro_mis(tr.clie_nome ) as varchar(40))     </t>
+  </si>
+  <si>
+    <t>as ds_transportadora,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_dt_emissao                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as dt_faturamento, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_id_caminhao                 </t>
+  </si>
+  <si>
+    <t>as id_caminhao,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_usuario_registro            </t>
+  </si>
+  <si>
+    <t>as user_inclusao,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_datahora_registro           </t>
+  </si>
+  <si>
+    <t>as dt_inclusao,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_usuario                     </t>
+  </si>
+  <si>
+    <t>as user_ult_alteracao,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_datahora                   </t>
+  </si>
+  <si>
+    <t>as dt_ult_alteracao,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_usuario_conferencia         </t>
+  </si>
+  <si>
+    <t>as user_conferencia_fiscal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_datahora_conferencia        </t>
+  </si>
+  <si>
+    <t>as dt_conferencia_fiscal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_id_filial                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_id_item                   </t>
+  </si>
+  <si>
+    <t>as nr_item_sku,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as id_filial, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cast(node.node_qt_uc as number(15,0))  </t>
+  </si>
+  <si>
+    <t>as qtde_item,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_icms_o                 </t>
+  </si>
+  <si>
+    <t>as vl_icms_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_merc_o                 </t>
+  </si>
+  <si>
+    <t>as vl_merc_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_frete_o                </t>
+  </si>
+  <si>
+    <t>as vl_frete_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_despesa_o              </t>
+  </si>
+  <si>
+    <t>as vl_despesa_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_desconto_inc           </t>
+  </si>
+  <si>
+    <t>as vl_desconto_inc,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_desconto_cond          </t>
+  </si>
+  <si>
+    <t>as vl_desconto_cond,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_total_o                </t>
+  </si>
+  <si>
+    <t>as vl_item_total_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_id_cia                    </t>
+  </si>
+  <si>
+    <t>as id_cia,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_id_nr                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_id_natope                 </t>
+  </si>
+  <si>
+    <t>as cfo,</t>
+  </si>
+  <si>
+    <t>as id_nr,</t>
+  </si>
+  <si>
+    <t>as vl_cmv_medio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_seq_natope                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as serie_cfo,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ter.clie_id_terceiro                </t>
+  </si>
+  <si>
+    <t>as cpf_cliente,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cast(filtro_mis(ter.clie_nome) as varchar(40)) </t>
+  </si>
+  <si>
+    <t>as nome_cliente,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.muni_id_estado                    </t>
+  </si>
+  <si>
+    <t>as id_estado,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.muni_nome                         </t>
+  </si>
+  <si>
+    <t>as ds_cidade,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_pr_unit                   </t>
+  </si>
+  <si>
+    <t>as vl_unitario,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_id_depos                  </t>
+  </si>
+  <si>
+    <t>as id_deposito,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depos.depo_nome                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as ds_depos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">node.node_vl_ipi_o                  </t>
+  </si>
+  <si>
+    <t>as vl_ipi_o,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_num_nota_ref              </t>
+  </si>
+  <si>
+    <t>as nota_ref,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noca.noca_serie_ref                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as nota_serie_ref,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce.nfca_id_nota_remessa           </t>
+  </si>
+  <si>
+    <t>as nota_remessa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce.nfca_serie_remessa             </t>
+  </si>
+  <si>
+    <t>as nota_serie_remessa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce.nfca_id_nota_saida             </t>
+  </si>
+  <si>
+    <t>as nota_saida,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce.nfca_serie_saida               </t>
+  </si>
+  <si>
+    <t>as nota_serie_saida,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce_rem.nfca_id_nota_saida             </t>
+  </si>
+  <si>
+    <t>as nota_remessa_saida,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfce_rem.nfca_serie_saida               </t>
+  </si>
+  <si>
+    <t>as nota_remessa_serie_saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cast(case when mv.moes_vl_movimento is null then  pc_sfit.preco_medio_corrente( node.node_id_cia, node.node_id_filial, node.node_id_item, 'P') * node.node_qt_uc   else mv.moes_vl_movimento  end as number(15,6)) </t>
+  </si>
+  <si>
+    <t>as id_transportadora,</t>
+  </si>
+  <si>
+    <t>Tabela</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>ln.ods_nfr_cab</t>
+  </si>
+  <si>
+    <t>dt_emissao_nfr</t>
+  </si>
+  <si>
+    <t>cod_caminhao</t>
+  </si>
+  <si>
+    <t>dt_ult_atualizacao</t>
+  </si>
+  <si>
+    <t>cd_filial</t>
+  </si>
+  <si>
+    <t>cd_cia</t>
+  </si>
+  <si>
+    <t>cd_natureza_operacao</t>
+  </si>
+  <si>
+    <t>sq_natureza_operacao</t>
+  </si>
+  <si>
+    <t>nr_nf_recebida</t>
+  </si>
+  <si>
+    <t>nr_serie_nf_recebida</t>
+  </si>
+  <si>
+    <t>ln.ods_nfr_det</t>
+  </si>
+  <si>
+    <t>qt_nominal_nf</t>
+  </si>
+  <si>
+    <t>vl_mercadoria</t>
+  </si>
+  <si>
+    <t>vl_total_item_nf</t>
+  </si>
+  <si>
+    <t>vl_desconto</t>
+  </si>
+  <si>
+    <t>vl_unitario</t>
+  </si>
+  <si>
+    <t>cd_deposito</t>
+  </si>
+  <si>
+    <t>ln.ods_fat_faturamento</t>
+  </si>
+  <si>
+    <t>cd_transportadora</t>
+  </si>
+  <si>
+    <t>nr_nf_remessa</t>
+  </si>
+  <si>
+    <t>nr_serie_nf_remessa</t>
+  </si>
+  <si>
+    <t>nr_nf</t>
+  </si>
+  <si>
+    <t>nr_serie_nf</t>
+  </si>
+  <si>
+    <t>MIS_LN</t>
+  </si>
+  <si>
+    <t>stg_dom_parceiro_cadastro</t>
+  </si>
+  <si>
+    <t>nm_parceiro</t>
+  </si>
+  <si>
+    <t>nr_cnpj_cpf</t>
+  </si>
+  <si>
+    <t>stg_dom_deposito</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>stg_dom_municipio</t>
+  </si>
+  <si>
+    <t>cd_estado</t>
+  </si>
+  <si>
+    <t>ds_municipio</t>
+  </si>
+  <si>
+    <t>cliente entrega ou fatura?</t>
+  </si>
+  <si>
+    <t>Podemos pegar da stg_fat_faturamento?</t>
+  </si>
+  <si>
+    <t>o que seria id_nr????</t>
+  </si>
+  <si>
+    <t>stg_dev_devolucao</t>
+  </si>
+  <si>
+    <t>dt_pedido</t>
+  </si>
+  <si>
+    <t>vl_total_item</t>
+  </si>
+  <si>
+    <t>vl_desconto_incondicional</t>
+  </si>
+  <si>
+    <t>posso dividir o Vlr_total_item pela qt_devolvida?</t>
+  </si>
+  <si>
+    <t>qt_devolucao</t>
+  </si>
+  <si>
+    <t>multiplicar por -1</t>
+  </si>
+  <si>
+    <t>não tem na tabela</t>
+  </si>
+  <si>
+    <t>Referência Fiscal</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1313,6 +1605,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1321,7 +1626,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1380,6 +1685,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2409,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2428,7 +2755,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>23</v>
@@ -2819,7 +3146,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -2833,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
@@ -3272,7 +3599,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3787,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -3818,7 +4145,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3901,7 +4228,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -3915,7 +4242,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
@@ -3943,7 +4270,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
@@ -3957,7 +4284,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
@@ -3971,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
@@ -4188,26 +4515,30 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:7" ht="18" customHeight="1"/>
+    <row r="2" spans="1:7" ht="18" customHeight="1"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1"/>
+    <row r="4" spans="1:7" ht="18" customHeight="1"/>
+    <row r="5" spans="1:7" ht="18" customHeight="1"/>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4215,7 +4546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4223,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4570,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4247,113 +4578,159 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="C12" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="C14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="C15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="C16" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="C17" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="C18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="C19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="C20" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
+    <row r="22" spans="1:4" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="C23" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4368,26 +4745,29 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:7" ht="18" customHeight="1"/>
+    <row r="2" spans="1:7" ht="18" customHeight="1"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1"/>
+    <row r="4" spans="1:7" ht="18" customHeight="1"/>
+    <row r="5" spans="1:7" ht="18" customHeight="1"/>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4395,7 +4775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4411,7 +4791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +4799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4427,70 +4807,92 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="C12" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="C14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="C15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="C17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="C18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>123</v>
       </c>
@@ -4498,15 +4900,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="C20" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>125</v>
       </c>
@@ -4514,15 +4919,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="C22" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>127</v>
       </c>
@@ -4530,7 +4938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>128</v>
       </c>
@@ -4538,15 +4946,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="C25" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>130</v>
       </c>
@@ -4554,7 +4965,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>131</v>
       </c>
@@ -4562,60 +4973,81 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="C28" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="C29" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="C30" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="C31" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="C32" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="C33" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>245</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4630,26 +5062,29 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
+    <row r="1" spans="1:7" ht="18" customHeight="1"/>
+    <row r="2" spans="1:7" ht="18" customHeight="1"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1"/>
+    <row r="4" spans="1:7" ht="18" customHeight="1"/>
+    <row r="5" spans="1:7" ht="18" customHeight="1"/>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4657,7 +5092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4665,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +5108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4681,7 +5116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4689,62 +5124,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="35.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="27"/>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+        <v>282</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -4752,7 +5190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -4760,7 +5198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -4768,7 +5206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4776,7 +5214,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -4784,7 +5222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -4792,7 +5230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
@@ -4800,7 +5238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
@@ -4808,7 +5246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -4816,7 +5254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -4824,7 +5262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -4832,7 +5270,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
@@ -4840,7 +5278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
@@ -4848,7 +5286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -4856,7 +5294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -4864,247 +5302,291 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F48" s="4"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5115,264 +5597,1294 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:E50"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E50"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="45" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5">
-      <c r="E2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5">
-      <c r="E4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" t="s">
+    <row r="1" spans="2:7">
+      <c r="E1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
+      <c r="F2" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" t="s">
-        <v>316</v>
+    <row r="14" spans="2:7">
+      <c r="B14" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="63.75">
+      <c r="B22" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B1:H42"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="45" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="E1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="63.75">
+      <c r="B22" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H27:H30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentação/Planilhas/Layouts/Devolucao.xlsx
+++ b/Documentação/Planilhas/Layouts/Devolucao.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="436">
   <si>
     <t>Campo</t>
   </si>
@@ -1300,10 +1300,46 @@
     <t>multiplicar por -1</t>
   </si>
   <si>
-    <t>não tem na tabela</t>
-  </si>
-  <si>
-    <t>Referência Fiscal</t>
+    <t>nr_nfr_devolucao</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>não tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não tem </t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>cab</t>
+  </si>
+  <si>
+    <t>dt_fatura</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal de Venda (NF Original) através do seu número. Ex: 20403, 59407, etc</t>
+  </si>
+  <si>
+    <t>Identifica a série da Nota Fiscal de Venda (NF Original) através do seu número. Ex: 128, 76, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal Entrada da mercadoria devolvida através do seu número. Ex: 3365, 69609, 5715, etc</t>
+  </si>
+  <si>
+    <t>Identifica a série da Nota Fiscal Entrada da mercadoria devolvida através do seu número. Ex: 123,105, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Referência Fiscal da devolução através do seu número. Ex:  000006384,000006385, 000006231, etc</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,6 +1394,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5353"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1674,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1709,6 +1757,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1718,6 +1776,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5353"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -4518,7 +4577,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4631,54 +4690,48 @@
         <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
+    <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -4689,18 +4742,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1">
+    <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1">
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>116</v>
       </c>
@@ -4711,7 +4764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1">
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -4722,7 +4775,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -5064,8 +5117,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5602,8 +5655,8 @@
   </sheetPr>
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6281,10 +6334,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B1:H42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6294,24 +6347,26 @@
     <col min="3" max="3" width="24.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="E1" s="28" t="s">
+    <row r="1" spans="2:11">
+      <c r="E1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:11">
       <c r="B2" s="28" t="s">
         <v>296</v>
       </c>
@@ -6322,13 +6377,20 @@
         <v>292</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="K2" s="2" t="str">
+        <f>CONCATENATE(F2,".",H2," ",C2)</f>
+        <v>fat.cd_transportadora as id_transportadora,</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="28" t="s">
         <v>297</v>
       </c>
@@ -6339,13 +6401,20 @@
         <v>403</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K42" si="0">CONCATENATE(F3,".",H3," ",C3)</f>
+        <v>cad.nm_parceiro as ds_transportadora,</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="28" t="s">
         <v>299</v>
       </c>
@@ -6356,13 +6425,20 @@
         <v>403</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">dev.dt_fatura as dt_faturamento, </v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="28" t="s">
         <v>301</v>
       </c>
@@ -6373,21 +6449,38 @@
         <v>292</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cab.cod_caminhao as id_caminhao,</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as user_inclusao,</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="28" t="s">
         <v>305</v>
       </c>
@@ -6398,21 +6491,38 @@
         <v>403</v>
       </c>
       <c r="F7" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.dt_pedido as dt_inclusao,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="28" t="s">
         <v>307</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as user_ult_alteracao,</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="28" t="s">
         <v>309</v>
       </c>
@@ -6423,29 +6533,56 @@
         <v>403</v>
       </c>
       <c r="F9" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.dt_ult_atualizacao as dt_ult_alteracao,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="28" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as user_conferencia_fiscal,</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="28" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as dt_conferencia_fiscal,</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="28" t="s">
         <v>315</v>
       </c>
@@ -6456,13 +6593,20 @@
         <v>403</v>
       </c>
       <c r="F12" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">dev.cd_filial as id_filial, </v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="28" t="s">
         <v>316</v>
       </c>
@@ -6473,13 +6617,20 @@
         <v>403</v>
       </c>
       <c r="F13" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.cd_item as nr_item_sku,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="28" t="s">
         <v>319</v>
       </c>
@@ -6490,16 +6641,23 @@
         <v>403</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.qt_devolucao as qtde_item,</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="28" t="s">
         <v>321</v>
       </c>
@@ -6510,13 +6668,20 @@
         <v>403</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_icms as vl_icms_o,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="28" t="s">
         <v>323</v>
       </c>
@@ -6527,13 +6692,20 @@
         <v>403</v>
       </c>
       <c r="F16" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_produto as vl_merc_o,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="28" t="s">
         <v>325</v>
       </c>
@@ -6544,13 +6716,20 @@
         <v>403</v>
       </c>
       <c r="F17" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_frete as vl_frete_o,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="28" t="s">
         <v>327</v>
       </c>
@@ -6561,13 +6740,20 @@
         <v>403</v>
       </c>
       <c r="F18" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_despesa as vl_despesa_o,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" s="28" t="s">
         <v>329</v>
       </c>
@@ -6578,24 +6764,38 @@
         <v>403</v>
       </c>
       <c r="F19" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="H19" s="30" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_desconto_incondicional as vl_desconto_inc,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="28" t="s">
         <v>331</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as vl_desconto_cond,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="B21" s="28" t="s">
         <v>333</v>
       </c>
@@ -6606,13 +6806,20 @@
         <v>403</v>
       </c>
       <c r="F21" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="63.75">
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_total_item as vl_item_total_o,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="63.75">
       <c r="B22" s="29" t="s">
         <v>376</v>
       </c>
@@ -6623,57 +6830,117 @@
         <v>403</v>
       </c>
       <c r="F22" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.vl_cmv as vl_cmv_medio,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.cd_cia as id_cia,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="B24" s="28" t="s">
         <v>337</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="E24" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.nr_nfr_devolucao as id_nr,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="B25" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="E25" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.cd_natureza_operacao as cfo,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="B26" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">dev.sq_natureza_operacao as serie_cfo,   </v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="B27" s="28" t="s">
         <v>344</v>
       </c>
@@ -6684,16 +6951,23 @@
         <v>403</v>
       </c>
       <c r="F27" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I27" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.nr_cnpj_cpf as cpf_cliente,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="28" t="s">
         <v>346</v>
       </c>
@@ -6704,14 +6978,21 @@
         <v>403</v>
       </c>
       <c r="F28" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="I28" s="33"/>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.nm_parceiro as nome_cliente,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="28" t="s">
         <v>348</v>
       </c>
@@ -6722,14 +7003,21 @@
         <v>403</v>
       </c>
       <c r="F29" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" s="33"/>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.cd_estado as id_estado,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="28" t="s">
         <v>350</v>
       </c>
@@ -6740,28 +7028,40 @@
         <v>403</v>
       </c>
       <c r="F30" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="I30" s="33"/>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.ds_municipio as ds_cidade,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="38.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
         <v>352</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="35" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as vl_unitario,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="28" t="s">
         <v>354</v>
       </c>
@@ -6772,13 +7072,20 @@
         <v>403</v>
       </c>
       <c r="F32" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dev.cd_deposito as id_deposito,</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="28" t="s">
         <v>356</v>
       </c>
@@ -6789,99 +7096,160 @@
         <v>292</v>
       </c>
       <c r="F33" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">dev.ds_deposito as ds_depos, </v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="28" t="s">
         <v>358</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as vl_ipi_o,</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="28" t="s">
         <v>360</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as nota_ref,</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="28" t="s">
         <v>362</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">.??? as nota_serie_ref,   </v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="28" t="s">
         <v>364</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.nr_nf_remessa as nota_remessa,</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="28" t="s">
         <v>366</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.nr_serie_nf_remessa as nota_serie_remessa,</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="28" t="s">
         <v>368</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as nota_saida,</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="28" t="s">
         <v>370</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as nota_serie_saida,</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="28" t="s">
         <v>372</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as nota_remessa_saida,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="28" t="s">
         <v>374</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>375</v>
       </c>
+      <c r="H42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.??? as nota_remessa_serie_saida</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Planilhas/Layouts/Devolucao.xlsx
+++ b/Documentação/Planilhas/Layouts/Devolucao.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="437">
   <si>
     <t>Campo</t>
   </si>
@@ -1340,6 +1340,9 @@
   </si>
   <si>
     <t>Identifica a Referência Fiscal da devolução através do seu número. Ex:  000006384,000006385, 000006231, etc</t>
+  </si>
+  <si>
+    <t>NR_NFR_DEVOLUCAO</t>
   </si>
 </sst>
 </file>
@@ -1754,9 +1757,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1766,6 +1766,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4577,7 +4580,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A14" sqref="A14:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4750,7 +4753,7 @@
         <v>435</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
@@ -4800,8 +4803,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5117,8 +5120,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5655,7 +5658,7 @@
   </sheetPr>
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -6336,8 +6339,8 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6355,14 +6358,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6472,7 +6475,7 @@
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>424</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -6514,7 +6517,7 @@
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>424</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -6556,7 +6559,7 @@
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>424</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -6574,7 +6577,7 @@
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>424</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -6787,7 +6790,7 @@
       <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>424</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -6959,7 +6962,7 @@
       <c r="H27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="37" t="s">
         <v>423</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -6986,7 +6989,7 @@
       <c r="H28" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="37"/>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>dev.nm_parceiro as nome_cliente,</v>
@@ -7011,7 +7014,7 @@
       <c r="H29" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I29" s="33"/>
+      <c r="I29" s="37"/>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>dev.cd_estado as id_estado,</v>
@@ -7036,7 +7039,7 @@
       <c r="H30" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="37"/>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>dev.ds_municipio as ds_cidade,</v>
@@ -7053,7 +7056,7 @@
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="34" t="s">
         <v>419</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -7119,7 +7122,7 @@
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>425</v>
       </c>
       <c r="K34" s="2" t="str">
